--- a/experiment_no_shift/plan.xlsx
+++ b/experiment_no_shift/plan.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willclapp/Desktop/245B/Replication245B/experiment_no_shift/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8789FFDE-6BD6-404F-BABA-A510F9444BB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB75316-AA55-B74C-B1BA-A93C4C8C32CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="13660" windowHeight="20020"/>
+    <workbookView xWindow="17800" yWindow="460" windowWidth="13660" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1199,11 +1199,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1628,8 +1628,8 @@
       <c r="A28">
         <v>6</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>13</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1715,8 +1715,8 @@
       <c r="A34">
         <v>12</v>
       </c>
-      <c r="B34" t="s">
-        <v>14</v>
+      <c r="B34">
+        <v>0</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>

--- a/experiment_no_shift/plan.xlsx
+++ b/experiment_no_shift/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willclapp/Desktop/245B/Replication245B/experiment_no_shift/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB75316-AA55-B74C-B1BA-A93C4C8C32CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B15A268-113E-E94A-8BB5-54345308FCAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17800" yWindow="460" windowWidth="13660" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="122">
   <si>
     <t>Plan</t>
   </si>
@@ -360,6 +360,42 @@
   </si>
   <si>
     <t>Test (12)</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>condtion</t>
+  </si>
+  <si>
+    <t>interaction</t>
+  </si>
+  <si>
+    <t>replication</t>
+  </si>
+  <si>
+    <t>&lt;.001</t>
+  </si>
+  <si>
+    <t>&lt;.05</t>
+  </si>
+  <si>
+    <t>&lt;.1</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1200,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="F18" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1212,7 +1248,7 @@
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1220,12 +1256,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1236,7 +1272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1249,16 +1285,37 @@
       <c r="E4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="H5" t="s">
         <v>45</v>
       </c>
       <c r="J5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5">
+        <v>0.32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -1268,8 +1325,20 @@
       <c r="J6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>-0.18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1285,8 +1354,20 @@
       <c r="J7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7">
+        <v>0.05</v>
+      </c>
+      <c r="O7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1302,8 +1383,23 @@
       <c r="J8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8">
+        <v>0.47</v>
+      </c>
+      <c r="O8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1319,8 +1415,20 @@
       <c r="J9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>-0.17</v>
+      </c>
+      <c r="O9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1336,8 +1444,20 @@
       <c r="J10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10">
+        <v>0.06</v>
+      </c>
+      <c r="O10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1354,7 +1474,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1371,7 +1491,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1388,7 +1508,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1408,7 +1528,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1428,7 +1548,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9</v>
       </c>
